--- a/customer_invoices.xlsx
+++ b/customer_invoices.xlsx
@@ -14,30 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Payment Section</t>
   </si>
   <si>
-    <t>TaxPayer NTN</t>
-  </si>
-  <si>
-    <t>TaxPayer CNIC</t>
-  </si>
-  <si>
-    <t>TaxPayer Name</t>
-  </si>
-  <si>
-    <t>TaxPayer City</t>
-  </si>
-  <si>
-    <t>TaxPayer Address</t>
-  </si>
-  <si>
-    <t>TaxPayer Status</t>
-  </si>
-  <si>
-    <t>TaxPayer Bussiness</t>
+    <t>Tax Payer NTN</t>
+  </si>
+  <si>
+    <t>Tax Payer CNIC</t>
+  </si>
+  <si>
+    <t>Tax Payer Name</t>
+  </si>
+  <si>
+    <t>Tax Payer City</t>
+  </si>
+  <si>
+    <t>Tax Payer Address</t>
+  </si>
+  <si>
+    <t>Tax Payer Status</t>
+  </si>
+  <si>
+    <t>Tax Payer Business</t>
   </si>
   <si>
     <t>Taxable Amount</t>
@@ -46,12 +46,33 @@
     <t>Tax Amount</t>
   </si>
   <si>
-    <t>sale</t>
-  </si>
-  <si>
     <t>123</t>
   </si>
   <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>basit</t>
+  </si>
+  <si>
+    <t>lahore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
     <t>342342344</t>
   </si>
   <si>
@@ -64,13 +85,10 @@
     <t>rrwerwerw</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
+    <t>400.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
   </si>
 </sst>
 </file>
@@ -108,12 +126,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -122,7 +155,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -422,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -470,29 +503,81 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/customer_invoices.xlsx
+++ b/customer_invoices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Payment Section</t>
   </si>
@@ -44,51 +44,6 @@
   </si>
   <si>
     <t>Tax Amount</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>basit</t>
-  </si>
-  <si>
-    <t>lahore</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>300.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>342342344</t>
-  </si>
-  <si>
-    <t>hannan</t>
-  </si>
-  <si>
-    <t>sgd</t>
-  </si>
-  <si>
-    <t>rrwerwerw</t>
-  </si>
-  <si>
-    <t>400.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
   </si>
 </sst>
 </file>
@@ -153,12 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -455,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,90 +448,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
